--- a/Temp/b1TDReferense.xlsx
+++ b/Temp/b1TDReferense.xlsx
@@ -25,7 +25,7 @@
     <t>Login</t>
   </si>
   <si>
-    <t>D:\eclipse\WorkSpace\FrameWork\Temp\b1\TestDataDB\TestData.xlsx</t>
+    <t>D:\AG_FW1\Temp\b1\TestDataDB\TestData.xlsx</t>
   </si>
 </sst>
 </file>
